--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,17 +529,66 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>37,01</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>45,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400010801931862</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59236</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>27,84</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>34,52</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,112 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400010783401151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>37,01</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>45,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400009406874951</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>172,80</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>41,47</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>214,27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400010783401151</t>
+          <t>400009406874951</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,24 +529,24 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>37,01</t>
+          <t>195,30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>42,82</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>45,89</t>
+          <t>238,12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400010783401151</t>
+          <t>400009406874951</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -582,17 +582,17 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37,01</t>
+          <t>195,30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>42,82</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45,89</t>
+          <t>238,12</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,70 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>172,80</t>
+          <t>195,30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41,47</t>
+          <t>42,82</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>214,27</t>
+          <t>238,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400009406874951</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>195,30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>42,82</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>238,12</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400009406874951</t>
+          <t>400010783401151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>11Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3669</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12/05/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -582,123 +582,17 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>195,30</t>
+          <t>37,01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>42,82</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>238,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400009406874951</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3669</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12/05/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>195,30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>42,82</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>238,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400009406874951</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3669</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12/05/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>195,30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>42,82</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>238,12</t>
+          <t>45,89</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,59 +543,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400010783401151</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7061</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>01/09/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>37,01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>45,89</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400009406874951</t>
+          <t>400011007047697</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>11Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3669</t>
+          <t>7671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12/05/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,17 +529,70 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>195,30</t>
+          <t>23,42</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>42,82</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>238,12</t>
+          <t>29,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011007047697</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7671</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>23,42</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>29,04</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011007047697</t>
+          <t>400009407839474</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,24 +501,20 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7671</t>
+          <t>56703</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,70 +525,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>23,42</t>
+          <t>48,39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>29,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011007047697</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7671</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19/09/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>23,42</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>29,04</t>
+          <t>60,00</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400009407839474</t>
+          <t>400011062938530</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,20 +501,24 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>11Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56703</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12/05/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,17 +529,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48,39</t>
+          <t>41,57</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>51,55</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,16 @@
           <t>Σύνολο</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Κατηγορία</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011062938530</t>
+          <t>400011067068726</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,19 +506,15 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>59788</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,19 +530,20 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>41,57</t>
+          <t>31,92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>51,55</t>
-        </is>
-      </c>
+          <t>39,58</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,56 +495,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011067068726</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>59788</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>31,92</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>39,58</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,60 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011075598890</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7880</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>8,06</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>9,99</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,60 @@
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011076470621</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44,35</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>55,00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,114 @@
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011050283341</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>179,41</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>43,06</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>222,47</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011062938530</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>41,57</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>9,98</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>51,55</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011075598890</t>
+          <t>400011067068726</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,24 +506,20 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7880</t>
+          <t>59788</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -534,17 +530,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>31,92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>39,58</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -552,7 +548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011076470621</t>
+          <t>400011062938530</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -567,17 +563,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>11Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8604</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -588,128 +584,20 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>44,35</t>
+          <t>41,57</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>55,00</t>
+          <t>51,55</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011050283341</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8508</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>179,41</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>43,06</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>222,47</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400011062938530</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7836</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>41,57</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>51,55</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,56 @@
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400010850816176</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59341</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-20,16</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-25,00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>41,57</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -548,6 +548,56 @@
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400010850816176</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59341</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-20,16</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-25,00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011062938530</t>
+          <t>400010850816176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,45 +506,41 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>59341</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>41,57</t>
+          <t>-20,16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>51,55</t>
+          <t>-25,00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -552,7 +548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400010850816176</t>
+          <t>400011062938530</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,41 +556,45 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>11Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59341</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>41,57</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-25,00</t>
+          <t>51,55</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,16 +489,11 @@
           <t>Σύνολο</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Κατηγορία</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400010850816176</t>
+          <t>400011174046739</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,41 +509,40 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>59341</t>
+          <t>60008</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>28,86</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-25,00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>35,79</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011062938530</t>
+          <t>400011184530011</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,17 +557,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11Μ0ΤΔΑ</t>
+          <t>5Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -584,20 +578,68 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>41,57</t>
+          <t>45,54</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>51,55</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>56,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011184830173</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>802576637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60038</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>18,30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>22,69</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011174046739</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60008</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,117 +525,15 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>28,86</t>
+          <t>18,30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>35,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011184530011</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>45,54</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10,93</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>56,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011184830173</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>802576637</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60038</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>18,30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>22,69</t>
         </is>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011172559639</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,20 +501,24 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>12Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>10768</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,17 +529,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,30</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>17,15</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011172559639</t>
+          <t>400011199848735</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,24 +501,20 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10768</t>
+          <t>60072</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,17 +525,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>74,36</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>92,21</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011199848735</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60072</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,17 +525,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>74,36</t>
+          <t>18,30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17,85</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>92,21</t>
+          <t>22,69</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011185825004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,15 +501,19 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,17 +529,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,30</t>
+          <t>22,61</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>28,04</t>
         </is>
       </c>
     </row>

--- a/uploads/802576637_invoices.xlsx
+++ b/uploads/802576637_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185825004</t>
+          <t>400011174046739</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,24 +501,20 @@
           <t>802576637</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>60008</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,17 +525,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22,61</t>
+          <t>28,86</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>35,79</t>
         </is>
       </c>
     </row>
